--- a/Week 3 - Req Spec - Backlogs _ User Stories/Product Backlog/Burndownchart.xlsx
+++ b/Week 3 - Req Spec - Backlogs _ User Stories/Product Backlog/Burndownchart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Business_Application_Development\Project\Week 3 - Req Spec - Backlogs _ User Stories\Product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Business_Application_Development\___ Project\Week 3 - Req Spec - Backlogs _ User Stories\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="19965" windowHeight="14025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,13 +233,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +426,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1777,7 @@
       <c r="C9" s="1">
         <v>30</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <f>I31</f>
         <v>100</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <f>J31</f>
@@ -1828,20 +1828,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1888,8 +1888,11 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
       <c r="M17" s="1">
-        <f>SUM(C17:J17)/B17*100</f>
+        <f t="shared" ref="M17:M23" si="0">SUM(C17:J17)/B17*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1900,8 +1903,11 @@
       <c r="B18" s="1">
         <v>9</v>
       </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
       <c r="M18" s="1">
-        <f>SUM(C18:J18)/B18*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1912,8 +1918,11 @@
       <c r="B19" s="1">
         <v>9</v>
       </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
       <c r="M19" s="1">
-        <f>SUM(C19:J19)/B19*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1924,8 +1933,11 @@
       <c r="B20" s="1">
         <v>6</v>
       </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
       <c r="M20" s="1">
-        <f>SUM(C20:J20)/B20*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1936,8 +1948,11 @@
       <c r="B21" s="1">
         <v>15</v>
       </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
       <c r="M21" s="1">
-        <f>SUM(C21:J21)/B21*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1948,8 +1963,11 @@
       <c r="B22" s="1">
         <v>6</v>
       </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
       <c r="M22" s="1">
-        <f>SUM(C22:J22)/B22*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1960,8 +1978,11 @@
       <c r="B23" s="1">
         <v>6</v>
       </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
       <c r="M23" s="1">
-        <f>SUM(C23:J23)/B23*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1972,8 +1993,11 @@
       <c r="B24" s="1">
         <v>9</v>
       </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24:M27" si="0">SUM(C24:J24)/B24*100</f>
+        <f t="shared" ref="M24:M27" si="1">SUM(C24:J24)/B24*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1984,8 +2008,11 @@
       <c r="B25" s="1">
         <v>3</v>
       </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1996,8 +2023,11 @@
       <c r="B26" s="1">
         <v>3</v>
       </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2009,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2085,39 +2115,39 @@
         <v>100</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:J31" si="1">C31-SUM(D17:D28)</f>
+        <f t="shared" ref="D31:I31" si="2">C31-SUM(D17:D28)</f>
         <v>100</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ref="J31" si="2">I31-SUM(J17:J28)</f>
+        <f t="shared" ref="J31" si="3">I31-SUM(J17:J28)</f>
         <v>100</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" ref="K31" si="3">J31-SUM(K17:K28)</f>
+        <f t="shared" ref="K31" si="4">J31-SUM(K17:K28)</f>
         <v>100</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" ref="L31" si="4">K31-SUM(L17:L28)</f>
+        <f t="shared" ref="L31" si="5">K31-SUM(L17:L28)</f>
         <v>100</v>
       </c>
     </row>
